--- a/iPad/controlvars.xlsx
+++ b/iPad/controlvars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyvenom/Documents/Projects/Noisebox-2018/iPad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5923D7A-4786-394F-875E-A0068AF39676}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298694D-A0E8-C541-828B-431803FFCE4F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F4EE8929-4E87-DE4C-8476-CAC14DB8317E}"/>
+    <workbookView xWindow="9180" yWindow="2000" windowWidth="15240" windowHeight="17440" xr2:uid="{F4EE8929-4E87-DE4C-8476-CAC14DB8317E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
   <si>
     <t>Noisebox 2018 control variables</t>
   </si>
@@ -243,6 +238,30 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>knob1</t>
+  </si>
+  <si>
+    <t>btn1</t>
+  </si>
+  <si>
+    <t>btn2</t>
+  </si>
+  <si>
+    <t>knob2</t>
+  </si>
+  <si>
+    <t>knob3</t>
+  </si>
+  <si>
+    <t>knob4</t>
   </si>
 </sst>
 </file>
@@ -250,7 +269,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -292,7 +311,7 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -618,34 +637,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDAB332-82F6-5145-A4B8-E4F29AA0B8A4}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -655,111 +676,115 @@
       <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -769,26 +794,29 @@
       <c r="C10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -798,26 +826,29 @@
       <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -827,26 +858,29 @@
       <c r="C12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
         <v>-24</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>24</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -856,26 +890,29 @@
       <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
         <v>-24</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -885,26 +922,29 @@
       <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
         <v>-1</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -914,26 +954,29 @@
       <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -943,23 +986,26 @@
       <c r="C16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
         <v>15</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>12000</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -969,23 +1015,26 @@
       <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -995,23 +1044,26 @@
       <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1021,23 +1073,26 @@
       <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1047,23 +1102,26 @@
       <c r="C20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
       <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
         <v>2000</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1073,23 +1131,26 @@
       <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
       <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
         <v>2000</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1099,23 +1160,26 @@
       <c r="C22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1125,23 +1189,26 @@
       <c r="C23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
         <v>2000</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1151,23 +1218,26 @@
       <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
         <v>2000</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1177,23 +1247,26 @@
       <c r="C25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
         <v>2000</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1203,23 +1276,26 @@
       <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>55</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1229,19 +1305,22 @@
       <c r="C27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <v>2000</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>69</v>
       </c>
     </row>

--- a/iPad/controlvars.xlsx
+++ b/iPad/controlvars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyvenom/Documents/Projects/Noisebox-2018/iPad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298694D-A0E8-C541-828B-431803FFCE4F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A84738-6924-8C41-A4F4-4256CE7CF12D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="2000" windowWidth="15240" windowHeight="17440" xr2:uid="{F4EE8929-4E87-DE4C-8476-CAC14DB8317E}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/iPad/controlvars.xlsx
+++ b/iPad/controlvars.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyvenom/Documents/Projects/Noisebox-2018/iPad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE99393-349B-2444-A881-70C68092ADBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA6B8E-32A2-114C-9A02-C89066DA84A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{F4EE8929-4E87-DE4C-8476-CAC14DB8317E}"/>
+    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" activeTab="1" xr2:uid="{F4EE8929-4E87-DE4C-8476-CAC14DB8317E}"/>
   </bookViews>
   <sheets>
-    <sheet name="controlvars" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="iPad version" sheetId="1" r:id="rId1"/>
+    <sheet name="proto1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="179">
   <si>
     <t>Noisebox 2018 control variables</t>
   </si>
@@ -316,6 +316,258 @@
   </si>
   <si>
     <t>~loop.muteExt</t>
+  </si>
+  <si>
+    <t>\osc1sel</t>
+  </si>
+  <si>
+    <t>\osc2sel</t>
+  </si>
+  <si>
+    <t>\osc1tune</t>
+  </si>
+  <si>
+    <t>\osc2tune</t>
+  </si>
+  <si>
+    <t>\oscMix</t>
+  </si>
+  <si>
+    <t>\oscNoise</t>
+  </si>
+  <si>
+    <t>\lpfCut</t>
+  </si>
+  <si>
+    <t>\lpfRes</t>
+  </si>
+  <si>
+    <t>\lpfEnv</t>
+  </si>
+  <si>
+    <t>\lpfMix</t>
+  </si>
+  <si>
+    <t>\lpfAtt</t>
+  </si>
+  <si>
+    <t>\lpfDec</t>
+  </si>
+  <si>
+    <t>\lpfSus</t>
+  </si>
+  <si>
+    <t>\lpfRel</t>
+  </si>
+  <si>
+    <t>\ampAtt</t>
+  </si>
+  <si>
+    <t>\ampDec</t>
+  </si>
+  <si>
+    <t>\ampSus</t>
+  </si>
+  <si>
+    <t>\ampRel</t>
+  </si>
+  <si>
+    <t>OSC1sel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>OSC2sel</t>
+  </si>
+  <si>
+    <t>Osc1tune</t>
+  </si>
+  <si>
+    <t>Osc2tune</t>
+  </si>
+  <si>
+    <t>OscMix</t>
+  </si>
+  <si>
+    <t>OscNoise</t>
+  </si>
+  <si>
+    <t>LPF cut</t>
+  </si>
+  <si>
+    <t>LPF res</t>
+  </si>
+  <si>
+    <t>LPF Env</t>
+  </si>
+  <si>
+    <t>LPF Att</t>
+  </si>
+  <si>
+    <t>LPF Dec</t>
+  </si>
+  <si>
+    <t>LPF Sus</t>
+  </si>
+  <si>
+    <t>LPF Rel</t>
+  </si>
+  <si>
+    <t>Amp Att</t>
+  </si>
+  <si>
+    <t>Amp Dec</t>
+  </si>
+  <si>
+    <t>Amp Sus</t>
+  </si>
+  <si>
+    <t>Amp Rel</t>
+  </si>
+  <si>
+    <t>linlin(0,~envSegMax,0,1)</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t>explin(15, 12000, 0.001, 1)</t>
+  </si>
+  <si>
+    <t>linlin(0,4,0,1)</t>
+  </si>
+  <si>
+    <t>,"</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>\button</t>
+  </si>
+  <si>
+    <t>\knob</t>
+  </si>
+  <si>
+    <t>IPAD VERSION</t>
+  </si>
+  <si>
+    <t>PROTOTYPE 1</t>
+  </si>
+  <si>
+    <t>WIRING</t>
+  </si>
+  <si>
+    <t>oct_up</t>
+  </si>
+  <si>
+    <t>oct_down</t>
+  </si>
+  <si>
+    <t>page_down</t>
+  </si>
+  <si>
+    <t>page_up</t>
+  </si>
+  <si>
+    <t>piezo_left</t>
+  </si>
+  <si>
+    <t>piezo_right</t>
+  </si>
+  <si>
+    <t>/raspberrypi/</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>note 1</t>
+  </si>
+  <si>
+    <t>note 2</t>
+  </si>
+  <si>
+    <t>note 3</t>
+  </si>
+  <si>
+    <t>note 4</t>
+  </si>
+  <si>
+    <t>note 5</t>
+  </si>
+  <si>
+    <t>note 6</t>
+  </si>
+  <si>
+    <t>note 7</t>
+  </si>
+  <si>
+    <t>note 8</t>
+  </si>
+  <si>
+    <t>note 9</t>
+  </si>
+  <si>
+    <t>note 10</t>
+  </si>
+  <si>
+    <t>note 11</t>
+  </si>
+  <si>
+    <t>note 12</t>
+  </si>
+  <si>
+    <t>note 13</t>
+  </si>
+  <si>
+    <t>note 14</t>
+  </si>
+  <si>
+    <t>note 15</t>
+  </si>
+  <si>
+    <t>note 16</t>
+  </si>
+  <si>
+    <t>note 17</t>
+  </si>
+  <si>
+    <t>note 18</t>
+  </si>
+  <si>
+    <t>note 19</t>
+  </si>
+  <si>
+    <t>note 20</t>
+  </si>
+  <si>
+    <t>imu_roll</t>
+  </si>
+  <si>
+    <t>imu_pitch</t>
+  </si>
+  <si>
+    <t>imu_yaw</t>
+  </si>
+  <si>
+    <t>imu_???</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -395,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,6 +714,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -779,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDAB332-82F6-5145-A4B8-E4F29AA0B8A4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,9 +1047,17 @@
     <col min="3" max="3" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,225 +1065,423 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" t="str">
+        <f>_xlfn.CONCAT(M7:Y7)</f>
+        <v>[\osc1sel,"OSC1sel",\button, 0, 0],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="9" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="J8" s="9"/>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" ref="Z8:Z24" si="0">_xlfn.CONCAT(M8:Y8)</f>
+        <v>[\osc2sel,"OSC2sel",\button, 1, 0],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
         <v>7</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>[\osc1tune,"Osc1tune",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G10" s="18">
         <v>-2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
         <v>8</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="J10" s="18"/>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="0"/>
+        <v>[\osc2tune,"Osc2tune",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="M11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="0"/>
+        <v>[\oscMix,"OscMix",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>-24</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>[\oscNoise,"OscNoise",\knob, -1, 0],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-24</v>
-      </c>
-      <c r="H12" s="15">
-        <v>24</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
@@ -1028,30 +1490,73 @@
         <v>58</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="15">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="H13" s="15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13">
+        <v>500</v>
+      </c>
+      <c r="U13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="34">
+        <v>500</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfCut,"LPF cut",\knob, 500, 500.explin(15, 12000, 0.001, 1)],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13">
         <v>0</v>
@@ -1060,16 +1565,16 @@
         <v>58</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1078,44 +1583,124 @@
         <v>65</v>
       </c>
       <c r="J14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14">
+        <v>3.3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfRes,"LPF res",\knob, 3.3, 3.3.linlin(0,4,0,1)],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfEnv,"LPF Env",\knob, 1, 1],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>2</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
@@ -1124,10 +1709,10 @@
         <v>59</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>12</v>
@@ -1144,98 +1729,309 @@
       <c r="J16" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="M16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfMix,"LPF Mix",\knob, 1, 1],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17">
+        <v>0.1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfAtt,"LPF Att",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18">
+        <v>0.1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>139</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfDec,"LPF Dec",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19">
+        <v>0.9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19">
+        <v>0.9</v>
+      </c>
+      <c r="W19" t="s">
+        <v>139</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfSus,"LPF Sus",\knob, 0.9, 0.9.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>15</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>12000</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="J20" s="9"/>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20">
+        <v>0.2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>139</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfRel,"LPF Rel",\knob, 0.2, 0.2.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="B21" s="13">
         <v>1</v>
@@ -1244,10 +2040,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>8</v>
@@ -1262,10 +2058,53 @@
         <v>67</v>
       </c>
       <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" t="s">
+        <v>114</v>
+      </c>
+      <c r="T21">
+        <v>0.1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V21">
+        <v>0.1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampAtt,"Amp Att",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
@@ -1274,10 +2113,10 @@
         <v>58</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>8</v>
@@ -1289,30 +2128,132 @@
         <v>1</v>
       </c>
       <c r="I22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22">
+        <v>0.1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22">
+        <v>0.1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>139</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampDec,"Amp Dec",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23">
+        <v>0.7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V23">
+        <v>0.7</v>
+      </c>
+      <c r="W23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampSus,"Amp Sus",\knob, 0.7, 0.7.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1320,13 +2261,56 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" t="s">
+        <v>141</v>
+      </c>
+      <c r="S24" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24">
+        <v>0.2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampRel,"Amp Rel",\knob, 0.2, 0.2.linlin(0,~envSegMax,0,1)]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -1335,52 +2319,37 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
@@ -1389,10 +2358,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1407,9 +2376,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -1418,27 +2387,27 @@
         <v>58</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -1447,107 +2416,106 @@
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <v>2000</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="5" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D32" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D34" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B36" s="8">
         <v>3</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
         <v>2000</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="13">
-        <v>3</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="15">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15">
-        <v>2000</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -1556,28 +2524,28 @@
         <v>58</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="15">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -1586,37 +2554,53 @@
         <v>58</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="15">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15">
         <v>2000</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1624,7 +2608,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -1638,7 +2622,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -1648,75 +2632,75 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B45" s="20">
         <v>4</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E45" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="14"/>
@@ -1726,21 +2710,13 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="17">
-        <v>4</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>88</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E47" s="30"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -1748,20 +2724,20 @@
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>84</v>
+      <c r="A48" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="17">
         <v>4</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -1771,7 +2747,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="17">
         <v>4</v>
@@ -1780,10 +2756,10 @@
         <v>59</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -1793,7 +2769,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="17">
         <v>4</v>
@@ -1802,10 +2778,10 @@
         <v>59</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -1814,26 +2790,48 @@
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="17">
+        <v>4</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B52" s="19">
         <v>4</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D52" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E52" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,12 +2841,2402 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD2677-88FC-D843-BEED-C81C61829C62}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" t="str">
+        <f>_xlfn.CONCAT(M7:Y7)</f>
+        <v>[\osc1sel,"OSC1sel",\button, 0, 0],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" ref="Z8:Z24" si="0">_xlfn.CONCAT(M8:Y8)</f>
+        <v>[\osc2sel,"OSC2sel",\button, 1, 0],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>[\osc1tune,"Osc1tune",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>8</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="0"/>
+        <v>[\osc2tune,"Osc2tune",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="M11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="0"/>
+        <v>[\oscMix,"OscMix",\knob, 0, 0.5],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H12" s="10">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>[\oscNoise,"OscNoise",\knob, -1, 0],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-24</v>
+      </c>
+      <c r="H13" s="15">
+        <v>24</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13">
+        <v>500</v>
+      </c>
+      <c r="U13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="34">
+        <v>500</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfCut,"LPF cut",\knob, 500, 500.explin(15, 12000, 0.001, 1)],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14">
+        <v>3.3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfRes,"LPF res",\knob, 3.3, 3.3.linlin(0,4,0,1)],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfEnv,"LPF Env",\knob, 1, 1],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfMix,"LPF Mix",\knob, 1, 1],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17">
+        <v>0.1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfAtt,"LPF Att",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18">
+        <v>0.1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>139</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfDec,"LPF Dec",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19">
+        <v>0.9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19">
+        <v>0.9</v>
+      </c>
+      <c r="W19" t="s">
+        <v>139</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfSus,"LPF Sus",\knob, 0.9, 0.9.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>15</v>
+      </c>
+      <c r="H20" s="10">
+        <v>12000</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20">
+        <v>0.2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>139</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>[\lpfRel,"LPF Rel",\knob, 0.2, 0.2.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="M21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" t="s">
+        <v>114</v>
+      </c>
+      <c r="T21">
+        <v>0.1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V21">
+        <v>0.1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampAtt,"Amp Att",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22">
+        <v>0.1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22">
+        <v>0.1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>139</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampDec,"Amp Dec",\knob, 0.1, 0.1.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23">
+        <v>0.7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V23">
+        <v>0.7</v>
+      </c>
+      <c r="W23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampSus,"Amp Sus",\knob, 0.7, 0.7.linlin(0,~envSegMax,0,1)],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" t="s">
+        <v>141</v>
+      </c>
+      <c r="S24" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24">
+        <v>0.2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="0"/>
+        <v>[\ampRel,"Amp Rel",\knob, 0.2, 0.2.linlin(0,~envSegMax,0,1)]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D32" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="20">
+        <v>4</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="17">
+        <v>4</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="17">
+        <v>4</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="17">
+        <v>4</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="17">
+        <v>4</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="19">
+        <v>4</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="5">
+        <v>10</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="5">
+        <v>10</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="5">
+        <v>10</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="5">
+        <v>10</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="5">
+        <v>10</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="5">
+        <v>10</v>
+      </c>
+      <c r="D80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="5">
+        <v>10</v>
+      </c>
+      <c r="D81" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="5">
+        <v>10</v>
+      </c>
+      <c r="D82" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="5">
+        <v>11</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="5">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="5">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="5">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="5">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="5">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="5">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="5">
+        <v>11</v>
+      </c>
+      <c r="D90" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="5">
+        <v>12</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="5">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="5">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="5">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="35"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="5">
+        <v>13</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="5">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="5">
+        <v>13</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="5">
+        <v>13</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="5">
+        <v>13</v>
+      </c>
+      <c r="D100" s="5">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>